--- a/examples/model_config.HH3000.workingversionnew_parameter_template.xlsx
+++ b/examples/model_config.HH3000.workingversionnew_parameter_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>class</t>
   </si>
@@ -627,6 +627,15 @@
     <t>RFeCO3_pre</t>
   </si>
   <si>
+    <t>nuBSi</t>
+  </si>
+  <si>
+    <t>RBSi_dis</t>
+  </si>
+  <si>
+    <t>aBSi</t>
+  </si>
+  <si>
     <t>rNdnrMn</t>
   </si>
   <si>
@@ -681,6 +690,12 @@
     <t>Omega_RFeCO3_dis,Omega_RFeCO3_pre</t>
   </si>
   <si>
+    <t>H4SiO4_dis_sat</t>
+  </si>
+  <si>
+    <t>Omega_RBSi_dis</t>
+  </si>
+  <si>
     <t>KspNdPO4</t>
   </si>
   <si>
@@ -690,7 +705,7 @@
     <t>dstopw</t>
   </si>
   <si>
-    <t>S_O2,S_TCO2,S_NH4,S_TH3PO4,S_NO2,S_NO3,S_Mn,S_Fe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TA</t>
+    <t>S_O2,S_TCO2,S_NH4,S_TH3PO4,S_NO2,S_NO3,S_Mn,S_Fe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_TA</t>
   </si>
   <si>
     <t>rNC</t>
@@ -1072,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2583,7 +2598,7 @@
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2592,12 +2607,12 @@
       </c>
       <c r="B94"/>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2606,12 +2621,12 @@
       </c>
       <c r="B95"/>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2620,12 +2635,12 @@
       </c>
       <c r="B96"/>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2634,12 +2649,12 @@
       </c>
       <c r="B97"/>
       <c r="C97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2648,12 +2663,12 @@
       </c>
       <c r="B98"/>
       <c r="C98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2662,12 +2677,12 @@
       </c>
       <c r="B99"/>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2676,12 +2691,12 @@
       </c>
       <c r="B100"/>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2690,12 +2705,12 @@
       </c>
       <c r="B101"/>
       <c r="C101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2704,12 +2719,12 @@
       </c>
       <c r="B102"/>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2718,12 +2733,12 @@
       </c>
       <c r="B103"/>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2732,12 +2747,12 @@
       </c>
       <c r="B104"/>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2746,7 +2761,7 @@
       </c>
       <c r="B105"/>
       <c r="C105" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
@@ -2788,12 +2803,54 @@
       </c>
       <c r="B108"/>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109"/>
+      <c r="C109" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111" t="s">
+        <v>236</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
